--- a/data/trans_dic/P16B02-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B02-Habitat-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P16B02-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B02-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,31%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,03%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,86%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,57%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,89%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,71%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,63%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,1%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,24%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>44,1; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>46,1; 89,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>54,66; 90,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>56,62; 89,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>69,13; 95,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>71,23; 93,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>61,47; 88,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>68,36; 90,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>71,33; 89,42</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,37%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,75%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,82%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,42%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,55%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,02%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,49</t>
+          <t>65,56; 84,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,96</t>
+          <t>73,42; 88,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,88</t>
+          <t>57,23; 75,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,73</t>
+          <t>78,83; 91,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>78,11; 89,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,15</t>
+          <t>72,91; 84,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>75,76; 87,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>78,68; 87,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>68,73; 79,64</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,11%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,93%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,2%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,43%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,81%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,79%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,68%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,48%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,48%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>79,03; 91,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>76,56; 87,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>63,14; 77,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>80,45; 89,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>79,5; 87,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>76,85; 86,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>81,55; 89,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>80,08; 86,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>73,65; 81,27</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,32%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,92%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,82%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,88%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,53%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,6%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>54,55; 76,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,7</t>
+          <t>57,63; 75,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,79</t>
+          <t>53,28; 71,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>82,27; 92,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>69,79; 81,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>65,45; 77,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>76,16; 85,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>67,41; 77,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>62,71; 73,53</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,08%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,7%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,11%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,65%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,4%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,89%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,73%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,88%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,17%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>70,0; 82,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,19</t>
+          <t>65,83; 79,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,01</t>
+          <t>55,25; 68,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>74,23; 84,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>69,31; 78,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>65,17; 74,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>74,63; 82,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>70,09; 77,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>62,84; 70,93</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,58%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,25%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,54%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,79%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,34%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,55%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,55%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,3%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,23%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>73,01; 81,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>72,25; 79,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>62,79; 70,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>81,01; 86,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>76,85; 81,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>72,86; 78,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>79,53; 83,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>76,03; 80,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>70,04; 74,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B02-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B02-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>81,31%</t>
+          <t>76,36%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>69,03%</t>
+          <t>79,68%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>74,86%</t>
+          <t>69,07%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>74,57%</t>
+          <t>84,4%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>85,89%</t>
+          <t>84,96%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>84,71%</t>
+          <t>80,49%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>76,63%</t>
+          <t>81,26%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>81,1%</t>
+          <t>83,14%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>81,24%</t>
+          <t>76,24%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>44,1; 100,0</t>
+          <t>66,25; 84,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>46,1; 89,08</t>
+          <t>71,13; 85,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>54,66; 90,86</t>
+          <t>60,09; 76,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>56,62; 89,17</t>
+          <t>77,73; 89,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>69,13; 95,41</t>
+          <t>79,56; 89,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>71,23; 93,51</t>
+          <t>74,98; 85,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>61,47; 88,24</t>
+          <t>75,02; 86,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>68,36; 90,21</t>
+          <t>78,48; 87,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>71,33; 89,42</t>
+          <t>71,64; 81,02</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>75,59%</t>
+          <t>86,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>81,37%</t>
+          <t>82,93%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>67,75%</t>
+          <t>71,2%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>86,82%</t>
+          <t>85,43%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>84,75%</t>
+          <t>83,81%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>79,42%</t>
+          <t>81,79%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>82,23%</t>
+          <t>85,68%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>83,55%</t>
+          <t>83,48%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>75,02%</t>
+          <t>77,48%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>65,56; 84,5</t>
+          <t>79,03; 91,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>73,42; 88,38</t>
+          <t>76,56; 87,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>57,23; 75,93</t>
+          <t>63,14; 77,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>78,83; 91,98</t>
+          <t>80,45; 89,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>78,11; 89,48</t>
+          <t>79,5; 87,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>72,91; 84,99</t>
+          <t>76,85; 86,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>75,76; 87,15</t>
+          <t>81,55; 89,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>78,68; 87,83</t>
+          <t>80,08; 86,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>68,73; 79,64</t>
+          <t>73,65; 81,27</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>86,11%</t>
+          <t>67,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>82,93%</t>
+          <t>67,32%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>71,2%</t>
+          <t>62,92%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>85,43%</t>
+          <t>87,82%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>83,81%</t>
+          <t>75,88%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>81,79%</t>
+          <t>71,53%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>85,68%</t>
+          <t>81,17%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>83,48%</t>
+          <t>73,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>77,48%</t>
+          <t>68,6%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>79,03; 91,32</t>
+          <t>54,55; 76,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>76,56; 87,84</t>
+          <t>57,63; 75,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>63,14; 77,08</t>
+          <t>53,28; 71,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>80,45; 89,85</t>
+          <t>82,27; 92,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>79,5; 87,85</t>
+          <t>69,79; 81,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>76,85; 86,24</t>
+          <t>65,45; 77,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>81,55; 89,19</t>
+          <t>76,16; 85,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>80,08; 86,89</t>
+          <t>67,41; 77,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>73,65; 81,27</t>
+          <t>62,71; 73,53</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>67,0%</t>
+          <t>77,08%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>67,32%</t>
+          <t>72,7%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>62,92%</t>
+          <t>62,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>87,82%</t>
+          <t>79,65%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>75,88%</t>
+          <t>74,4%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>71,53%</t>
+          <t>69,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>81,17%</t>
+          <t>78,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>73,0%</t>
+          <t>73,88%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>68,6%</t>
+          <t>67,17%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>54,55; 76,73</t>
+          <t>70,0; 82,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>57,63; 75,64</t>
+          <t>65,83; 79,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>53,28; 71,97</t>
+          <t>55,25; 68,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>82,27; 92,28</t>
+          <t>74,23; 84,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>69,79; 81,21</t>
+          <t>69,31; 78,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>65,45; 77,54</t>
+          <t>65,17; 74,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>76,16; 85,8</t>
+          <t>74,63; 82,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>67,41; 77,29</t>
+          <t>70,09; 77,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>62,71; 73,53</t>
+          <t>62,84; 70,93</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>77,08%</t>
+          <t>77,58%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>72,7%</t>
+          <t>76,25%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>62,11%</t>
+          <t>66,54%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>79,65%</t>
+          <t>83,79%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>74,4%</t>
+          <t>79,34%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>69,89%</t>
+          <t>75,55%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>78,73%</t>
+          <t>81,55%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>73,88%</t>
+          <t>78,3%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>67,17%</t>
+          <t>72,23%</t>
         </is>
       </c>
     </row>
@@ -1125,169 +1125,59 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>70,0; 82,82</t>
+          <t>73,01; 81,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>65,83; 79,7</t>
+          <t>72,25; 79,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>55,25; 68,81</t>
+          <t>62,79; 70,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>74,23; 84,13</t>
+          <t>81,01; 86,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>69,31; 78,33</t>
+          <t>76,85; 81,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>65,17; 74,89</t>
+          <t>72,86; 78,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>74,63; 82,16</t>
+          <t>79,53; 83,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>70,09; 77,45</t>
+          <t>76,03; 80,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>62,84; 70,93</t>
+          <t>70,04; 74,43</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>77,58%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>76,25%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>66,54%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>83,79%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>79,34%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>75,55%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>81,55%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>78,3%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>72,23%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>73,01; 81,26</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>72,25; 79,64</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>62,79; 70,37</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>81,01; 86,11</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>76,85; 81,57</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>72,86; 78,19</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>79,53; 83,62</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>76,03; 80,23</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>70,04; 74,43</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P16B02-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B02-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>66,25; 84,22</t>
+          <t>66,85; 84,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>71,13; 85,94</t>
+          <t>71,57; 86,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>60,09; 76,75</t>
+          <t>60,4; 76,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>77,73; 89,6</t>
+          <t>77,77; 89,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>79,56; 89,42</t>
+          <t>79,23; 89,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>74,98; 85,52</t>
+          <t>74,67; 85,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>75,02; 86,07</t>
+          <t>75,88; 86,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>78,48; 87,35</t>
+          <t>78,85; 87,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>71,64; 81,02</t>
+          <t>71,38; 80,61</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>79,03; 91,32</t>
+          <t>78,78; 91,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>76,56; 87,84</t>
+          <t>76,51; 87,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>63,14; 77,08</t>
+          <t>64,37; 77,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>80,45; 89,85</t>
+          <t>80,0; 89,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>79,5; 87,85</t>
+          <t>78,89; 87,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>76,85; 86,24</t>
+          <t>76,67; 85,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>81,55; 89,19</t>
+          <t>80,84; 89,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>80,08; 86,89</t>
+          <t>80,07; 86,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>73,65; 81,27</t>
+          <t>73,17; 81,44</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>54,55; 76,73</t>
+          <t>55,53; 77,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>57,63; 75,64</t>
+          <t>58,74; 75,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>53,28; 71,97</t>
+          <t>53,14; 71,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>82,27; 92,28</t>
+          <t>82,69; 92,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>69,79; 81,21</t>
+          <t>69,93; 81,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>65,45; 77,54</t>
+          <t>64,73; 77,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>76,16; 85,8</t>
+          <t>75,99; 85,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>67,41; 77,29</t>
+          <t>67,79; 77,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>62,71; 73,53</t>
+          <t>63,1; 74,0</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>70,0; 82,82</t>
+          <t>70,19; 82,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>65,83; 79,7</t>
+          <t>65,02; 79,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>55,25; 68,81</t>
+          <t>54,97; 69,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>74,23; 84,13</t>
+          <t>74,34; 84,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>69,31; 78,33</t>
+          <t>69,31; 78,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>65,17; 74,89</t>
+          <t>64,66; 74,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>74,63; 82,16</t>
+          <t>74,54; 82,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>70,09; 77,45</t>
+          <t>69,79; 77,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>62,84; 70,93</t>
+          <t>62,76; 70,93</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>73,01; 81,26</t>
+          <t>73,66; 81,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>72,25; 79,64</t>
+          <t>72,43; 79,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>62,79; 70,37</t>
+          <t>62,87; 70,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>81,01; 86,11</t>
+          <t>81,03; 86,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>76,85; 81,57</t>
+          <t>76,92; 81,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>72,86; 78,19</t>
+          <t>72,8; 78,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>79,53; 83,62</t>
+          <t>79,45; 83,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>76,03; 80,23</t>
+          <t>76,26; 80,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>70,04; 74,43</t>
+          <t>69,88; 74,22</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyas medicinas para el dolor/bajar la fiebre fueron recetadas por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>67381</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>96523</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>87869</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>116223</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>196837</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>172996</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>183604</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>293359</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>260864</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>58985; 74490</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>86703; 104454</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>76838; 97738</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>107089; 123791</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>183577; 207217</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>160475; 183567</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>171436; 194392</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>278228; 307628</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>244207; 275797</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>107776</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>160873</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>143191</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>179137</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>272431</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>240234</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>286913</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>433304</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>383426</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>98600; 114023</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>148420; 170013</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>129453; 156066</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>167763; 188331</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>256424; 285380</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>225203; 252573</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>270682; 298376</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>415596; 449471</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>362103; 402993</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>55792</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>83758</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>69711</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>155758</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>185632</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>153758</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>211550</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>269390</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>223470</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>46239; 64397</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>73076; 93486</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>58879; 79235</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>146646; 163967</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>171060; 199519</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>139152; 167384</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>198038; 222779</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>250180; 285776</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>205539; 241053</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>118977</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>122099</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>119862</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>219835</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>286889</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>250411</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>338812</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>408988</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>370273</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>108345; 127984</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>109194; 134107</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>106080; 133574</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>205196; 232230</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>267264; 302963</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>231692; 267110</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>320793; 355476</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>386342; 428938</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>345980; 391041</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>869</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>744</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1008</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1297</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>349926</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>463252</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>420634</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>670954</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>941789</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>817400</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1020879</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1405041</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1238033</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>332239; 367078</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>440023; 484127</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>397435; 446507</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>648815; 690276</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>913062; 967251</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>787612; 845204</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>994504; 1049751</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1368424; 1437696</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1197764; 1272209</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>